--- a/030-試験/033-総合試験計画書兼結果書.xlsx
+++ b/030-試験/033-総合試験計画書兼結果書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Disstrg\個人\戦略本部\ta.suzuki\デスクトップ\アスリー研修\004-試験計画書\総合試験計画書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\030-試験\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5C8492-BEA8-425B-90E7-C7E0423E462A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E0DE4E-54E7-4D0E-8F2E-4843455CACB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E19F39F9-7AA3-46C6-B109-8C2C31CD3061}"/>
   </bookViews>
@@ -1763,63 +1763,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1838,6 +1781,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1855,6 +1807,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1897,6 +1858,45 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2241,76 +2241,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:183" ht="15.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="102" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="91"/>
-      <c r="AN1" s="102" t="s">
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" s="102"/>
-      <c r="AP1" s="102"/>
-      <c r="AQ1" s="102"/>
-      <c r="AR1" s="103">
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="90">
         <v>45575</v>
       </c>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
-      <c r="AW1" s="103"/>
-      <c r="AX1" s="103"/>
-      <c r="AY1" s="103"/>
-      <c r="AZ1" s="103"/>
-      <c r="BA1" s="103"/>
-      <c r="BB1" s="104" t="s">
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="90"/>
+      <c r="BB1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="104"/>
-      <c r="BD1" s="105"/>
-      <c r="BE1" s="83"/>
-      <c r="BF1" s="84"/>
-      <c r="BG1" s="84"/>
-      <c r="BH1" s="85"/>
+      <c r="BC1" s="91"/>
+      <c r="BD1" s="92"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="65"/>
+      <c r="BH1" s="66"/>
       <c r="BW1" s="24"/>
       <c r="BX1" s="24"/>
       <c r="BY1" s="24"/>
@@ -2346,74 +2346,74 @@
       <c r="FQ1" s="24"/>
     </row>
     <row r="2" spans="1:183" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="101" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="92" t="s">
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="101" t="s">
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="108" t="s">
+      <c r="AO2" s="88"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="108"/>
-      <c r="AU2" s="108"/>
-      <c r="AV2" s="108"/>
-      <c r="AW2" s="108"/>
-      <c r="AX2" s="108"/>
-      <c r="AY2" s="108"/>
-      <c r="AZ2" s="108"/>
-      <c r="BA2" s="108"/>
-      <c r="BB2" s="106"/>
-      <c r="BC2" s="106"/>
-      <c r="BD2" s="107"/>
-      <c r="BE2" s="86"/>
-      <c r="BF2" s="87"/>
-      <c r="BG2" s="87"/>
-      <c r="BH2" s="88"/>
+      <c r="AS2" s="95"/>
+      <c r="AT2" s="95"/>
+      <c r="AU2" s="95"/>
+      <c r="AV2" s="95"/>
+      <c r="AW2" s="95"/>
+      <c r="AX2" s="95"/>
+      <c r="AY2" s="95"/>
+      <c r="AZ2" s="95"/>
+      <c r="BA2" s="95"/>
+      <c r="BB2" s="93"/>
+      <c r="BC2" s="93"/>
+      <c r="BD2" s="94"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="68"/>
+      <c r="BG2" s="68"/>
+      <c r="BH2" s="69"/>
       <c r="BW2" s="24"/>
       <c r="BX2" s="24"/>
       <c r="BY2" s="24"/>
@@ -2449,58 +2449,58 @@
       <c r="FQ2" s="24"/>
     </row>
     <row r="3" spans="1:183" ht="15.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="104"/>
+      <c r="C3" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
     </row>
     <row r="4" spans="1:183" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
     </row>
     <row r="5" spans="1:183" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="25"/>
@@ -2573,978 +2573,978 @@
     </row>
     <row r="6" spans="1:183" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="27"/>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="78"/>
-      <c r="AM6" s="78"/>
-      <c r="AN6" s="78"/>
-      <c r="AO6" s="78"/>
-      <c r="AP6" s="78"/>
-      <c r="AQ6" s="78"/>
-      <c r="AR6" s="78"/>
-      <c r="AS6" s="78"/>
-      <c r="AT6" s="78"/>
-      <c r="AU6" s="78"/>
-      <c r="AV6" s="78"/>
-      <c r="AW6" s="78"/>
-      <c r="AX6" s="78"/>
-      <c r="AY6" s="78"/>
-      <c r="AZ6" s="78"/>
-      <c r="BA6" s="78"/>
-      <c r="BB6" s="78"/>
-      <c r="BC6" s="78"/>
-      <c r="BD6" s="78"/>
-      <c r="BE6" s="78"/>
-      <c r="BF6" s="78"/>
-      <c r="BG6" s="78"/>
-      <c r="BH6" s="78"/>
-      <c r="BI6" s="78"/>
-      <c r="BJ6" s="78"/>
-      <c r="BK6" s="78"/>
-      <c r="BL6" s="78"/>
-      <c r="BM6" s="78"/>
-      <c r="BN6" s="78"/>
-      <c r="BO6" s="78"/>
-      <c r="BP6" s="78"/>
-      <c r="BQ6" s="78"/>
-      <c r="BR6" s="78"/>
-      <c r="BS6" s="78"/>
-      <c r="BT6" s="78"/>
-      <c r="BU6" s="78"/>
-      <c r="BV6" s="78"/>
-      <c r="BW6" s="78"/>
-      <c r="BX6" s="78"/>
-      <c r="BY6" s="78"/>
-      <c r="BZ6" s="78"/>
-      <c r="CA6" s="78"/>
-      <c r="CB6" s="78"/>
-      <c r="CC6" s="78"/>
-      <c r="CD6" s="78"/>
-      <c r="CE6" s="78"/>
-      <c r="CF6" s="78"/>
-      <c r="CG6" s="78"/>
-      <c r="CH6" s="78"/>
-      <c r="CI6" s="78"/>
-      <c r="CJ6" s="78"/>
-      <c r="CK6" s="78"/>
-      <c r="CL6" s="78"/>
-      <c r="CM6" s="78"/>
-      <c r="CN6" s="78"/>
-      <c r="CO6" s="78"/>
-      <c r="CP6" s="78"/>
-      <c r="CQ6" s="78"/>
-      <c r="CR6" s="78"/>
-      <c r="CS6" s="78"/>
-      <c r="CT6" s="78"/>
-      <c r="CU6" s="78"/>
-      <c r="CV6" s="78"/>
-      <c r="CW6" s="78"/>
-      <c r="CX6" s="78"/>
-      <c r="CY6" s="78"/>
-      <c r="CZ6" s="78"/>
-      <c r="DA6" s="78"/>
-      <c r="DB6" s="78"/>
-      <c r="DC6" s="78"/>
-      <c r="DD6" s="78"/>
-      <c r="DE6" s="78"/>
-      <c r="DF6" s="78"/>
-      <c r="DG6" s="78"/>
-      <c r="DH6" s="78"/>
-      <c r="DI6" s="78"/>
-      <c r="DJ6" s="78"/>
-      <c r="DK6" s="78"/>
-      <c r="DL6" s="78"/>
-      <c r="DM6" s="78"/>
-      <c r="DN6" s="78"/>
-      <c r="DO6" s="78"/>
-      <c r="DP6" s="78"/>
-      <c r="DQ6" s="78"/>
-      <c r="DR6" s="78"/>
-      <c r="DS6" s="78"/>
-      <c r="DT6" s="78"/>
-      <c r="DU6" s="78"/>
-      <c r="DV6" s="78"/>
-      <c r="DW6" s="78"/>
-      <c r="DX6" s="78"/>
-      <c r="DY6" s="78"/>
-      <c r="DZ6" s="78"/>
-      <c r="EA6" s="78"/>
-      <c r="EB6" s="78"/>
-      <c r="EC6" s="78"/>
-      <c r="ED6" s="78"/>
-      <c r="EE6" s="78"/>
-      <c r="EF6" s="78"/>
-      <c r="EG6" s="78"/>
-      <c r="EH6" s="78"/>
-      <c r="EI6" s="78"/>
-      <c r="EJ6" s="78"/>
-      <c r="EK6" s="78"/>
-      <c r="EL6" s="78"/>
-      <c r="EM6" s="78"/>
-      <c r="EN6" s="78"/>
-      <c r="EO6" s="78"/>
-      <c r="EP6" s="78"/>
-      <c r="EQ6" s="78"/>
-      <c r="ER6" s="78"/>
-      <c r="ES6" s="78"/>
-      <c r="ET6" s="78"/>
-      <c r="EU6" s="78"/>
-      <c r="EV6" s="78"/>
-      <c r="EW6" s="78"/>
-      <c r="EX6" s="78"/>
-      <c r="EY6" s="78"/>
-      <c r="EZ6" s="78"/>
-      <c r="FA6" s="78"/>
-      <c r="FB6" s="78"/>
-      <c r="FC6" s="78"/>
-      <c r="FD6" s="78"/>
-      <c r="FE6" s="78"/>
-      <c r="FF6" s="78"/>
-      <c r="FG6" s="78"/>
-      <c r="FH6" s="78"/>
-      <c r="FI6" s="78"/>
-      <c r="FJ6" s="78"/>
-      <c r="FK6" s="78"/>
-      <c r="FL6" s="78"/>
-      <c r="FM6" s="78"/>
-      <c r="FN6" s="78"/>
-      <c r="FO6" s="78"/>
-      <c r="FP6" s="78"/>
-      <c r="FQ6" s="78"/>
-      <c r="FR6" s="78"/>
-      <c r="FS6" s="78"/>
-      <c r="FT6" s="78"/>
-      <c r="FU6" s="78"/>
-      <c r="FV6" s="78"/>
-      <c r="FW6" s="78"/>
-      <c r="FX6" s="78"/>
-      <c r="FY6" s="78"/>
-      <c r="FZ6" s="78"/>
-      <c r="GA6" s="79"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
+      <c r="AD6" s="97"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="97"/>
+      <c r="AI6" s="97"/>
+      <c r="AJ6" s="97"/>
+      <c r="AK6" s="97"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="97"/>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="97"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="97"/>
+      <c r="AR6" s="97"/>
+      <c r="AS6" s="97"/>
+      <c r="AT6" s="97"/>
+      <c r="AU6" s="97"/>
+      <c r="AV6" s="97"/>
+      <c r="AW6" s="97"/>
+      <c r="AX6" s="97"/>
+      <c r="AY6" s="97"/>
+      <c r="AZ6" s="97"/>
+      <c r="BA6" s="97"/>
+      <c r="BB6" s="97"/>
+      <c r="BC6" s="97"/>
+      <c r="BD6" s="97"/>
+      <c r="BE6" s="97"/>
+      <c r="BF6" s="97"/>
+      <c r="BG6" s="97"/>
+      <c r="BH6" s="97"/>
+      <c r="BI6" s="97"/>
+      <c r="BJ6" s="97"/>
+      <c r="BK6" s="97"/>
+      <c r="BL6" s="97"/>
+      <c r="BM6" s="97"/>
+      <c r="BN6" s="97"/>
+      <c r="BO6" s="97"/>
+      <c r="BP6" s="97"/>
+      <c r="BQ6" s="97"/>
+      <c r="BR6" s="97"/>
+      <c r="BS6" s="97"/>
+      <c r="BT6" s="97"/>
+      <c r="BU6" s="97"/>
+      <c r="BV6" s="97"/>
+      <c r="BW6" s="97"/>
+      <c r="BX6" s="97"/>
+      <c r="BY6" s="97"/>
+      <c r="BZ6" s="97"/>
+      <c r="CA6" s="97"/>
+      <c r="CB6" s="97"/>
+      <c r="CC6" s="97"/>
+      <c r="CD6" s="97"/>
+      <c r="CE6" s="97"/>
+      <c r="CF6" s="97"/>
+      <c r="CG6" s="97"/>
+      <c r="CH6" s="97"/>
+      <c r="CI6" s="97"/>
+      <c r="CJ6" s="97"/>
+      <c r="CK6" s="97"/>
+      <c r="CL6" s="97"/>
+      <c r="CM6" s="97"/>
+      <c r="CN6" s="97"/>
+      <c r="CO6" s="97"/>
+      <c r="CP6" s="97"/>
+      <c r="CQ6" s="97"/>
+      <c r="CR6" s="97"/>
+      <c r="CS6" s="97"/>
+      <c r="CT6" s="97"/>
+      <c r="CU6" s="97"/>
+      <c r="CV6" s="97"/>
+      <c r="CW6" s="97"/>
+      <c r="CX6" s="97"/>
+      <c r="CY6" s="97"/>
+      <c r="CZ6" s="97"/>
+      <c r="DA6" s="97"/>
+      <c r="DB6" s="97"/>
+      <c r="DC6" s="97"/>
+      <c r="DD6" s="97"/>
+      <c r="DE6" s="97"/>
+      <c r="DF6" s="97"/>
+      <c r="DG6" s="97"/>
+      <c r="DH6" s="97"/>
+      <c r="DI6" s="97"/>
+      <c r="DJ6" s="97"/>
+      <c r="DK6" s="97"/>
+      <c r="DL6" s="97"/>
+      <c r="DM6" s="97"/>
+      <c r="DN6" s="97"/>
+      <c r="DO6" s="97"/>
+      <c r="DP6" s="97"/>
+      <c r="DQ6" s="97"/>
+      <c r="DR6" s="97"/>
+      <c r="DS6" s="97"/>
+      <c r="DT6" s="97"/>
+      <c r="DU6" s="97"/>
+      <c r="DV6" s="97"/>
+      <c r="DW6" s="97"/>
+      <c r="DX6" s="97"/>
+      <c r="DY6" s="97"/>
+      <c r="DZ6" s="97"/>
+      <c r="EA6" s="97"/>
+      <c r="EB6" s="97"/>
+      <c r="EC6" s="97"/>
+      <c r="ED6" s="97"/>
+      <c r="EE6" s="97"/>
+      <c r="EF6" s="97"/>
+      <c r="EG6" s="97"/>
+      <c r="EH6" s="97"/>
+      <c r="EI6" s="97"/>
+      <c r="EJ6" s="97"/>
+      <c r="EK6" s="97"/>
+      <c r="EL6" s="97"/>
+      <c r="EM6" s="97"/>
+      <c r="EN6" s="97"/>
+      <c r="EO6" s="97"/>
+      <c r="EP6" s="97"/>
+      <c r="EQ6" s="97"/>
+      <c r="ER6" s="97"/>
+      <c r="ES6" s="97"/>
+      <c r="ET6" s="97"/>
+      <c r="EU6" s="97"/>
+      <c r="EV6" s="97"/>
+      <c r="EW6" s="97"/>
+      <c r="EX6" s="97"/>
+      <c r="EY6" s="97"/>
+      <c r="EZ6" s="97"/>
+      <c r="FA6" s="97"/>
+      <c r="FB6" s="97"/>
+      <c r="FC6" s="97"/>
+      <c r="FD6" s="97"/>
+      <c r="FE6" s="97"/>
+      <c r="FF6" s="97"/>
+      <c r="FG6" s="97"/>
+      <c r="FH6" s="97"/>
+      <c r="FI6" s="97"/>
+      <c r="FJ6" s="97"/>
+      <c r="FK6" s="97"/>
+      <c r="FL6" s="97"/>
+      <c r="FM6" s="97"/>
+      <c r="FN6" s="97"/>
+      <c r="FO6" s="97"/>
+      <c r="FP6" s="97"/>
+      <c r="FQ6" s="97"/>
+      <c r="FR6" s="97"/>
+      <c r="FS6" s="97"/>
+      <c r="FT6" s="97"/>
+      <c r="FU6" s="97"/>
+      <c r="FV6" s="97"/>
+      <c r="FW6" s="97"/>
+      <c r="FX6" s="97"/>
+      <c r="FY6" s="97"/>
+      <c r="FZ6" s="97"/>
+      <c r="GA6" s="98"/>
     </row>
     <row r="7" spans="1:183" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G7" s="27"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="81"/>
-      <c r="AG7" s="81"/>
-      <c r="AH7" s="81"/>
-      <c r="AI7" s="81"/>
-      <c r="AJ7" s="81"/>
-      <c r="AK7" s="81"/>
-      <c r="AL7" s="81"/>
-      <c r="AM7" s="81"/>
-      <c r="AN7" s="81"/>
-      <c r="AO7" s="81"/>
-      <c r="AP7" s="81"/>
-      <c r="AQ7" s="81"/>
-      <c r="AR7" s="81"/>
-      <c r="AS7" s="81"/>
-      <c r="AT7" s="81"/>
-      <c r="AU7" s="81"/>
-      <c r="AV7" s="81"/>
-      <c r="AW7" s="81"/>
-      <c r="AX7" s="81"/>
-      <c r="AY7" s="81"/>
-      <c r="AZ7" s="81"/>
-      <c r="BA7" s="81"/>
-      <c r="BB7" s="81"/>
-      <c r="BC7" s="81"/>
-      <c r="BD7" s="81"/>
-      <c r="BE7" s="81"/>
-      <c r="BF7" s="81"/>
-      <c r="BG7" s="81"/>
-      <c r="BH7" s="81"/>
-      <c r="BI7" s="81"/>
-      <c r="BJ7" s="81"/>
-      <c r="BK7" s="81"/>
-      <c r="BL7" s="81"/>
-      <c r="BM7" s="81"/>
-      <c r="BN7" s="81"/>
-      <c r="BO7" s="81"/>
-      <c r="BP7" s="81"/>
-      <c r="BQ7" s="81"/>
-      <c r="BR7" s="81"/>
-      <c r="BS7" s="81"/>
-      <c r="BT7" s="81"/>
-      <c r="BU7" s="81"/>
-      <c r="BV7" s="81"/>
-      <c r="BW7" s="81"/>
-      <c r="BX7" s="81"/>
-      <c r="BY7" s="81"/>
-      <c r="BZ7" s="81"/>
-      <c r="CA7" s="81"/>
-      <c r="CB7" s="81"/>
-      <c r="CC7" s="81"/>
-      <c r="CD7" s="81"/>
-      <c r="CE7" s="81"/>
-      <c r="CF7" s="81"/>
-      <c r="CG7" s="81"/>
-      <c r="CH7" s="81"/>
-      <c r="CI7" s="81"/>
-      <c r="CJ7" s="81"/>
-      <c r="CK7" s="81"/>
-      <c r="CL7" s="81"/>
-      <c r="CM7" s="81"/>
-      <c r="CN7" s="81"/>
-      <c r="CO7" s="81"/>
-      <c r="CP7" s="81"/>
-      <c r="CQ7" s="81"/>
-      <c r="CR7" s="81"/>
-      <c r="CS7" s="81"/>
-      <c r="CT7" s="81"/>
-      <c r="CU7" s="81"/>
-      <c r="CV7" s="81"/>
-      <c r="CW7" s="81"/>
-      <c r="CX7" s="81"/>
-      <c r="CY7" s="81"/>
-      <c r="CZ7" s="81"/>
-      <c r="DA7" s="81"/>
-      <c r="DB7" s="81"/>
-      <c r="DC7" s="81"/>
-      <c r="DD7" s="81"/>
-      <c r="DE7" s="81"/>
-      <c r="DF7" s="81"/>
-      <c r="DG7" s="81"/>
-      <c r="DH7" s="81"/>
-      <c r="DI7" s="81"/>
-      <c r="DJ7" s="81"/>
-      <c r="DK7" s="81"/>
-      <c r="DL7" s="81"/>
-      <c r="DM7" s="81"/>
-      <c r="DN7" s="81"/>
-      <c r="DO7" s="81"/>
-      <c r="DP7" s="81"/>
-      <c r="DQ7" s="81"/>
-      <c r="DR7" s="81"/>
-      <c r="DS7" s="81"/>
-      <c r="DT7" s="81"/>
-      <c r="DU7" s="81"/>
-      <c r="DV7" s="81"/>
-      <c r="DW7" s="81"/>
-      <c r="DX7" s="81"/>
-      <c r="DY7" s="81"/>
-      <c r="DZ7" s="81"/>
-      <c r="EA7" s="81"/>
-      <c r="EB7" s="81"/>
-      <c r="EC7" s="81"/>
-      <c r="ED7" s="81"/>
-      <c r="EE7" s="81"/>
-      <c r="EF7" s="81"/>
-      <c r="EG7" s="81"/>
-      <c r="EH7" s="81"/>
-      <c r="EI7" s="81"/>
-      <c r="EJ7" s="81"/>
-      <c r="EK7" s="81"/>
-      <c r="EL7" s="81"/>
-      <c r="EM7" s="81"/>
-      <c r="EN7" s="81"/>
-      <c r="EO7" s="81"/>
-      <c r="EP7" s="81"/>
-      <c r="EQ7" s="81"/>
-      <c r="ER7" s="81"/>
-      <c r="ES7" s="81"/>
-      <c r="ET7" s="81"/>
-      <c r="EU7" s="81"/>
-      <c r="EV7" s="81"/>
-      <c r="EW7" s="81"/>
-      <c r="EX7" s="81"/>
-      <c r="EY7" s="81"/>
-      <c r="EZ7" s="81"/>
-      <c r="FA7" s="81"/>
-      <c r="FB7" s="81"/>
-      <c r="FC7" s="81"/>
-      <c r="FD7" s="81"/>
-      <c r="FE7" s="81"/>
-      <c r="FF7" s="81"/>
-      <c r="FG7" s="81"/>
-      <c r="FH7" s="81"/>
-      <c r="FI7" s="81"/>
-      <c r="FJ7" s="81"/>
-      <c r="FK7" s="81"/>
-      <c r="FL7" s="81"/>
-      <c r="FM7" s="81"/>
-      <c r="FN7" s="81"/>
-      <c r="FO7" s="81"/>
-      <c r="FP7" s="81"/>
-      <c r="FQ7" s="81"/>
-      <c r="FR7" s="81"/>
-      <c r="FS7" s="81"/>
-      <c r="FT7" s="81"/>
-      <c r="FU7" s="81"/>
-      <c r="FV7" s="81"/>
-      <c r="FW7" s="81"/>
-      <c r="FX7" s="81"/>
-      <c r="FY7" s="81"/>
-      <c r="FZ7" s="81"/>
-      <c r="GA7" s="82"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="100"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="100"/>
+      <c r="AH7" s="100"/>
+      <c r="AI7" s="100"/>
+      <c r="AJ7" s="100"/>
+      <c r="AK7" s="100"/>
+      <c r="AL7" s="100"/>
+      <c r="AM7" s="100"/>
+      <c r="AN7" s="100"/>
+      <c r="AO7" s="100"/>
+      <c r="AP7" s="100"/>
+      <c r="AQ7" s="100"/>
+      <c r="AR7" s="100"/>
+      <c r="AS7" s="100"/>
+      <c r="AT7" s="100"/>
+      <c r="AU7" s="100"/>
+      <c r="AV7" s="100"/>
+      <c r="AW7" s="100"/>
+      <c r="AX7" s="100"/>
+      <c r="AY7" s="100"/>
+      <c r="AZ7" s="100"/>
+      <c r="BA7" s="100"/>
+      <c r="BB7" s="100"/>
+      <c r="BC7" s="100"/>
+      <c r="BD7" s="100"/>
+      <c r="BE7" s="100"/>
+      <c r="BF7" s="100"/>
+      <c r="BG7" s="100"/>
+      <c r="BH7" s="100"/>
+      <c r="BI7" s="100"/>
+      <c r="BJ7" s="100"/>
+      <c r="BK7" s="100"/>
+      <c r="BL7" s="100"/>
+      <c r="BM7" s="100"/>
+      <c r="BN7" s="100"/>
+      <c r="BO7" s="100"/>
+      <c r="BP7" s="100"/>
+      <c r="BQ7" s="100"/>
+      <c r="BR7" s="100"/>
+      <c r="BS7" s="100"/>
+      <c r="BT7" s="100"/>
+      <c r="BU7" s="100"/>
+      <c r="BV7" s="100"/>
+      <c r="BW7" s="100"/>
+      <c r="BX7" s="100"/>
+      <c r="BY7" s="100"/>
+      <c r="BZ7" s="100"/>
+      <c r="CA7" s="100"/>
+      <c r="CB7" s="100"/>
+      <c r="CC7" s="100"/>
+      <c r="CD7" s="100"/>
+      <c r="CE7" s="100"/>
+      <c r="CF7" s="100"/>
+      <c r="CG7" s="100"/>
+      <c r="CH7" s="100"/>
+      <c r="CI7" s="100"/>
+      <c r="CJ7" s="100"/>
+      <c r="CK7" s="100"/>
+      <c r="CL7" s="100"/>
+      <c r="CM7" s="100"/>
+      <c r="CN7" s="100"/>
+      <c r="CO7" s="100"/>
+      <c r="CP7" s="100"/>
+      <c r="CQ7" s="100"/>
+      <c r="CR7" s="100"/>
+      <c r="CS7" s="100"/>
+      <c r="CT7" s="100"/>
+      <c r="CU7" s="100"/>
+      <c r="CV7" s="100"/>
+      <c r="CW7" s="100"/>
+      <c r="CX7" s="100"/>
+      <c r="CY7" s="100"/>
+      <c r="CZ7" s="100"/>
+      <c r="DA7" s="100"/>
+      <c r="DB7" s="100"/>
+      <c r="DC7" s="100"/>
+      <c r="DD7" s="100"/>
+      <c r="DE7" s="100"/>
+      <c r="DF7" s="100"/>
+      <c r="DG7" s="100"/>
+      <c r="DH7" s="100"/>
+      <c r="DI7" s="100"/>
+      <c r="DJ7" s="100"/>
+      <c r="DK7" s="100"/>
+      <c r="DL7" s="100"/>
+      <c r="DM7" s="100"/>
+      <c r="DN7" s="100"/>
+      <c r="DO7" s="100"/>
+      <c r="DP7" s="100"/>
+      <c r="DQ7" s="100"/>
+      <c r="DR7" s="100"/>
+      <c r="DS7" s="100"/>
+      <c r="DT7" s="100"/>
+      <c r="DU7" s="100"/>
+      <c r="DV7" s="100"/>
+      <c r="DW7" s="100"/>
+      <c r="DX7" s="100"/>
+      <c r="DY7" s="100"/>
+      <c r="DZ7" s="100"/>
+      <c r="EA7" s="100"/>
+      <c r="EB7" s="100"/>
+      <c r="EC7" s="100"/>
+      <c r="ED7" s="100"/>
+      <c r="EE7" s="100"/>
+      <c r="EF7" s="100"/>
+      <c r="EG7" s="100"/>
+      <c r="EH7" s="100"/>
+      <c r="EI7" s="100"/>
+      <c r="EJ7" s="100"/>
+      <c r="EK7" s="100"/>
+      <c r="EL7" s="100"/>
+      <c r="EM7" s="100"/>
+      <c r="EN7" s="100"/>
+      <c r="EO7" s="100"/>
+      <c r="EP7" s="100"/>
+      <c r="EQ7" s="100"/>
+      <c r="ER7" s="100"/>
+      <c r="ES7" s="100"/>
+      <c r="ET7" s="100"/>
+      <c r="EU7" s="100"/>
+      <c r="EV7" s="100"/>
+      <c r="EW7" s="100"/>
+      <c r="EX7" s="100"/>
+      <c r="EY7" s="100"/>
+      <c r="EZ7" s="100"/>
+      <c r="FA7" s="100"/>
+      <c r="FB7" s="100"/>
+      <c r="FC7" s="100"/>
+      <c r="FD7" s="100"/>
+      <c r="FE7" s="100"/>
+      <c r="FF7" s="100"/>
+      <c r="FG7" s="100"/>
+      <c r="FH7" s="100"/>
+      <c r="FI7" s="100"/>
+      <c r="FJ7" s="100"/>
+      <c r="FK7" s="100"/>
+      <c r="FL7" s="100"/>
+      <c r="FM7" s="100"/>
+      <c r="FN7" s="100"/>
+      <c r="FO7" s="100"/>
+      <c r="FP7" s="100"/>
+      <c r="FQ7" s="100"/>
+      <c r="FR7" s="100"/>
+      <c r="FS7" s="100"/>
+      <c r="FT7" s="100"/>
+      <c r="FU7" s="100"/>
+      <c r="FV7" s="100"/>
+      <c r="FW7" s="100"/>
+      <c r="FX7" s="100"/>
+      <c r="FY7" s="100"/>
+      <c r="FZ7" s="100"/>
+      <c r="GA7" s="101"/>
     </row>
     <row r="8" spans="1:183" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="75"/>
-      <c r="AG8" s="75"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="75"/>
-      <c r="AM8" s="75"/>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="75"/>
-      <c r="AP8" s="75"/>
-      <c r="AQ8" s="75"/>
-      <c r="AR8" s="75"/>
-      <c r="AS8" s="75"/>
-      <c r="AT8" s="75"/>
-      <c r="AU8" s="75"/>
-      <c r="AV8" s="75"/>
-      <c r="AW8" s="75"/>
-      <c r="AX8" s="75"/>
-      <c r="AY8" s="76"/>
-      <c r="AZ8" s="74" t="s">
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+      <c r="AJ8" s="80"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="80"/>
+      <c r="AM8" s="80"/>
+      <c r="AN8" s="80"/>
+      <c r="AO8" s="80"/>
+      <c r="AP8" s="80"/>
+      <c r="AQ8" s="80"/>
+      <c r="AR8" s="80"/>
+      <c r="AS8" s="80"/>
+      <c r="AT8" s="80"/>
+      <c r="AU8" s="80"/>
+      <c r="AV8" s="80"/>
+      <c r="AW8" s="80"/>
+      <c r="AX8" s="80"/>
+      <c r="AY8" s="81"/>
+      <c r="AZ8" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="BA8" s="75"/>
-      <c r="BB8" s="75"/>
-      <c r="BC8" s="75"/>
-      <c r="BD8" s="75"/>
-      <c r="BE8" s="75"/>
-      <c r="BF8" s="75"/>
-      <c r="BG8" s="75"/>
-      <c r="BH8" s="75"/>
-      <c r="BI8" s="75"/>
-      <c r="BJ8" s="75"/>
-      <c r="BK8" s="75"/>
-      <c r="BL8" s="75"/>
-      <c r="BM8" s="75"/>
-      <c r="BN8" s="75"/>
-      <c r="BO8" s="75"/>
-      <c r="BP8" s="75"/>
-      <c r="BQ8" s="75"/>
-      <c r="BR8" s="75"/>
-      <c r="BS8" s="75"/>
-      <c r="BT8" s="75"/>
-      <c r="BU8" s="75"/>
-      <c r="BV8" s="75"/>
-      <c r="BW8" s="75"/>
-      <c r="BX8" s="75"/>
-      <c r="BY8" s="75"/>
-      <c r="BZ8" s="75"/>
-      <c r="CA8" s="75"/>
-      <c r="CB8" s="75"/>
-      <c r="CC8" s="75"/>
-      <c r="CD8" s="75"/>
-      <c r="CE8" s="75"/>
-      <c r="CF8" s="75"/>
-      <c r="CG8" s="75"/>
-      <c r="CH8" s="75"/>
-      <c r="CI8" s="75"/>
-      <c r="CJ8" s="75"/>
-      <c r="CK8" s="75"/>
-      <c r="CL8" s="75"/>
-      <c r="CM8" s="75"/>
-      <c r="CN8" s="75"/>
-      <c r="CO8" s="75"/>
-      <c r="CP8" s="75"/>
-      <c r="CQ8" s="76"/>
-      <c r="CR8" s="74" t="s">
+      <c r="BA8" s="80"/>
+      <c r="BB8" s="80"/>
+      <c r="BC8" s="80"/>
+      <c r="BD8" s="80"/>
+      <c r="BE8" s="80"/>
+      <c r="BF8" s="80"/>
+      <c r="BG8" s="80"/>
+      <c r="BH8" s="80"/>
+      <c r="BI8" s="80"/>
+      <c r="BJ8" s="80"/>
+      <c r="BK8" s="80"/>
+      <c r="BL8" s="80"/>
+      <c r="BM8" s="80"/>
+      <c r="BN8" s="80"/>
+      <c r="BO8" s="80"/>
+      <c r="BP8" s="80"/>
+      <c r="BQ8" s="80"/>
+      <c r="BR8" s="80"/>
+      <c r="BS8" s="80"/>
+      <c r="BT8" s="80"/>
+      <c r="BU8" s="80"/>
+      <c r="BV8" s="80"/>
+      <c r="BW8" s="80"/>
+      <c r="BX8" s="80"/>
+      <c r="BY8" s="80"/>
+      <c r="BZ8" s="80"/>
+      <c r="CA8" s="80"/>
+      <c r="CB8" s="80"/>
+      <c r="CC8" s="80"/>
+      <c r="CD8" s="80"/>
+      <c r="CE8" s="80"/>
+      <c r="CF8" s="80"/>
+      <c r="CG8" s="80"/>
+      <c r="CH8" s="80"/>
+      <c r="CI8" s="80"/>
+      <c r="CJ8" s="80"/>
+      <c r="CK8" s="80"/>
+      <c r="CL8" s="80"/>
+      <c r="CM8" s="80"/>
+      <c r="CN8" s="80"/>
+      <c r="CO8" s="80"/>
+      <c r="CP8" s="80"/>
+      <c r="CQ8" s="81"/>
+      <c r="CR8" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="CS8" s="75"/>
-      <c r="CT8" s="75"/>
-      <c r="CU8" s="75"/>
-      <c r="CV8" s="75"/>
-      <c r="CW8" s="75"/>
-      <c r="CX8" s="75"/>
-      <c r="CY8" s="75"/>
-      <c r="CZ8" s="75"/>
-      <c r="DA8" s="75"/>
-      <c r="DB8" s="75"/>
-      <c r="DC8" s="75"/>
-      <c r="DD8" s="75"/>
-      <c r="DE8" s="75"/>
-      <c r="DF8" s="75"/>
-      <c r="DG8" s="75"/>
-      <c r="DH8" s="75"/>
-      <c r="DI8" s="75"/>
-      <c r="DJ8" s="75"/>
-      <c r="DK8" s="75"/>
-      <c r="DL8" s="75"/>
-      <c r="DM8" s="75"/>
-      <c r="DN8" s="75"/>
-      <c r="DO8" s="75"/>
-      <c r="DP8" s="75"/>
-      <c r="DQ8" s="75"/>
-      <c r="DR8" s="75"/>
-      <c r="DS8" s="75"/>
-      <c r="DT8" s="75"/>
-      <c r="DU8" s="75"/>
-      <c r="DV8" s="75"/>
-      <c r="DW8" s="75"/>
-      <c r="DX8" s="75"/>
-      <c r="DY8" s="75"/>
-      <c r="DZ8" s="75"/>
-      <c r="EA8" s="75"/>
-      <c r="EB8" s="75"/>
-      <c r="EC8" s="75"/>
-      <c r="ED8" s="75"/>
-      <c r="EE8" s="75"/>
-      <c r="EF8" s="75"/>
-      <c r="EG8" s="75"/>
-      <c r="EH8" s="75"/>
-      <c r="EI8" s="76"/>
-      <c r="EJ8" s="74" t="s">
+      <c r="CS8" s="80"/>
+      <c r="CT8" s="80"/>
+      <c r="CU8" s="80"/>
+      <c r="CV8" s="80"/>
+      <c r="CW8" s="80"/>
+      <c r="CX8" s="80"/>
+      <c r="CY8" s="80"/>
+      <c r="CZ8" s="80"/>
+      <c r="DA8" s="80"/>
+      <c r="DB8" s="80"/>
+      <c r="DC8" s="80"/>
+      <c r="DD8" s="80"/>
+      <c r="DE8" s="80"/>
+      <c r="DF8" s="80"/>
+      <c r="DG8" s="80"/>
+      <c r="DH8" s="80"/>
+      <c r="DI8" s="80"/>
+      <c r="DJ8" s="80"/>
+      <c r="DK8" s="80"/>
+      <c r="DL8" s="80"/>
+      <c r="DM8" s="80"/>
+      <c r="DN8" s="80"/>
+      <c r="DO8" s="80"/>
+      <c r="DP8" s="80"/>
+      <c r="DQ8" s="80"/>
+      <c r="DR8" s="80"/>
+      <c r="DS8" s="80"/>
+      <c r="DT8" s="80"/>
+      <c r="DU8" s="80"/>
+      <c r="DV8" s="80"/>
+      <c r="DW8" s="80"/>
+      <c r="DX8" s="80"/>
+      <c r="DY8" s="80"/>
+      <c r="DZ8" s="80"/>
+      <c r="EA8" s="80"/>
+      <c r="EB8" s="80"/>
+      <c r="EC8" s="80"/>
+      <c r="ED8" s="80"/>
+      <c r="EE8" s="80"/>
+      <c r="EF8" s="80"/>
+      <c r="EG8" s="80"/>
+      <c r="EH8" s="80"/>
+      <c r="EI8" s="81"/>
+      <c r="EJ8" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="EK8" s="75"/>
-      <c r="EL8" s="75"/>
-      <c r="EM8" s="75"/>
-      <c r="EN8" s="75"/>
-      <c r="EO8" s="75"/>
-      <c r="EP8" s="75"/>
-      <c r="EQ8" s="75"/>
-      <c r="ER8" s="75"/>
-      <c r="ES8" s="75"/>
-      <c r="ET8" s="75"/>
-      <c r="EU8" s="75"/>
-      <c r="EV8" s="75"/>
-      <c r="EW8" s="75"/>
-      <c r="EX8" s="75"/>
-      <c r="EY8" s="75"/>
-      <c r="EZ8" s="75"/>
-      <c r="FA8" s="75"/>
-      <c r="FB8" s="75"/>
-      <c r="FC8" s="75"/>
-      <c r="FD8" s="75"/>
-      <c r="FE8" s="75"/>
-      <c r="FF8" s="75"/>
-      <c r="FG8" s="75"/>
-      <c r="FH8" s="75"/>
-      <c r="FI8" s="75"/>
-      <c r="FJ8" s="75"/>
-      <c r="FK8" s="75"/>
-      <c r="FL8" s="75"/>
-      <c r="FM8" s="75"/>
-      <c r="FN8" s="75"/>
-      <c r="FO8" s="75"/>
-      <c r="FP8" s="75"/>
-      <c r="FQ8" s="75"/>
-      <c r="FR8" s="75"/>
-      <c r="FS8" s="75"/>
-      <c r="FT8" s="75"/>
-      <c r="FU8" s="75"/>
-      <c r="FV8" s="75"/>
-      <c r="FW8" s="75"/>
-      <c r="FX8" s="75"/>
-      <c r="FY8" s="75"/>
-      <c r="FZ8" s="75"/>
-      <c r="GA8" s="76"/>
+      <c r="EK8" s="80"/>
+      <c r="EL8" s="80"/>
+      <c r="EM8" s="80"/>
+      <c r="EN8" s="80"/>
+      <c r="EO8" s="80"/>
+      <c r="EP8" s="80"/>
+      <c r="EQ8" s="80"/>
+      <c r="ER8" s="80"/>
+      <c r="ES8" s="80"/>
+      <c r="ET8" s="80"/>
+      <c r="EU8" s="80"/>
+      <c r="EV8" s="80"/>
+      <c r="EW8" s="80"/>
+      <c r="EX8" s="80"/>
+      <c r="EY8" s="80"/>
+      <c r="EZ8" s="80"/>
+      <c r="FA8" s="80"/>
+      <c r="FB8" s="80"/>
+      <c r="FC8" s="80"/>
+      <c r="FD8" s="80"/>
+      <c r="FE8" s="80"/>
+      <c r="FF8" s="80"/>
+      <c r="FG8" s="80"/>
+      <c r="FH8" s="80"/>
+      <c r="FI8" s="80"/>
+      <c r="FJ8" s="80"/>
+      <c r="FK8" s="80"/>
+      <c r="FL8" s="80"/>
+      <c r="FM8" s="80"/>
+      <c r="FN8" s="80"/>
+      <c r="FO8" s="80"/>
+      <c r="FP8" s="80"/>
+      <c r="FQ8" s="80"/>
+      <c r="FR8" s="80"/>
+      <c r="FS8" s="80"/>
+      <c r="FT8" s="80"/>
+      <c r="FU8" s="80"/>
+      <c r="FV8" s="80"/>
+      <c r="FW8" s="80"/>
+      <c r="FX8" s="80"/>
+      <c r="FY8" s="80"/>
+      <c r="FZ8" s="80"/>
+      <c r="GA8" s="81"/>
     </row>
     <row r="9" spans="1:183" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="75"/>
-      <c r="AL9" s="75"/>
-      <c r="AM9" s="75"/>
-      <c r="AN9" s="75"/>
-      <c r="AO9" s="75"/>
-      <c r="AP9" s="75"/>
-      <c r="AQ9" s="75"/>
-      <c r="AR9" s="75"/>
-      <c r="AS9" s="75"/>
-      <c r="AT9" s="75"/>
-      <c r="AU9" s="75"/>
-      <c r="AV9" s="75"/>
-      <c r="AW9" s="75"/>
-      <c r="AX9" s="75"/>
-      <c r="AY9" s="76"/>
-      <c r="AZ9" s="74" t="s">
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="80"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="80"/>
+      <c r="AI9" s="80"/>
+      <c r="AJ9" s="80"/>
+      <c r="AK9" s="80"/>
+      <c r="AL9" s="80"/>
+      <c r="AM9" s="80"/>
+      <c r="AN9" s="80"/>
+      <c r="AO9" s="80"/>
+      <c r="AP9" s="80"/>
+      <c r="AQ9" s="80"/>
+      <c r="AR9" s="80"/>
+      <c r="AS9" s="80"/>
+      <c r="AT9" s="80"/>
+      <c r="AU9" s="80"/>
+      <c r="AV9" s="80"/>
+      <c r="AW9" s="80"/>
+      <c r="AX9" s="80"/>
+      <c r="AY9" s="81"/>
+      <c r="AZ9" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="BA9" s="75"/>
-      <c r="BB9" s="75"/>
-      <c r="BC9" s="75"/>
-      <c r="BD9" s="75"/>
-      <c r="BE9" s="75"/>
-      <c r="BF9" s="75"/>
-      <c r="BG9" s="75"/>
-      <c r="BH9" s="75"/>
-      <c r="BI9" s="75"/>
-      <c r="BJ9" s="75"/>
-      <c r="BK9" s="75"/>
-      <c r="BL9" s="75"/>
-      <c r="BM9" s="75"/>
-      <c r="BN9" s="75"/>
-      <c r="BO9" s="75"/>
-      <c r="BP9" s="75"/>
-      <c r="BQ9" s="75"/>
-      <c r="BR9" s="75"/>
-      <c r="BS9" s="75"/>
-      <c r="BT9" s="75"/>
-      <c r="BU9" s="75"/>
-      <c r="BV9" s="75"/>
-      <c r="BW9" s="75"/>
-      <c r="BX9" s="75"/>
-      <c r="BY9" s="75"/>
-      <c r="BZ9" s="75"/>
-      <c r="CA9" s="75"/>
-      <c r="CB9" s="75"/>
-      <c r="CC9" s="75"/>
-      <c r="CD9" s="75"/>
-      <c r="CE9" s="75"/>
-      <c r="CF9" s="75"/>
-      <c r="CG9" s="75"/>
-      <c r="CH9" s="75"/>
-      <c r="CI9" s="75"/>
-      <c r="CJ9" s="75"/>
-      <c r="CK9" s="75"/>
-      <c r="CL9" s="75"/>
-      <c r="CM9" s="75"/>
-      <c r="CN9" s="75"/>
-      <c r="CO9" s="75"/>
-      <c r="CP9" s="75"/>
-      <c r="CQ9" s="76"/>
-      <c r="CR9" s="74" t="s">
+      <c r="BA9" s="80"/>
+      <c r="BB9" s="80"/>
+      <c r="BC9" s="80"/>
+      <c r="BD9" s="80"/>
+      <c r="BE9" s="80"/>
+      <c r="BF9" s="80"/>
+      <c r="BG9" s="80"/>
+      <c r="BH9" s="80"/>
+      <c r="BI9" s="80"/>
+      <c r="BJ9" s="80"/>
+      <c r="BK9" s="80"/>
+      <c r="BL9" s="80"/>
+      <c r="BM9" s="80"/>
+      <c r="BN9" s="80"/>
+      <c r="BO9" s="80"/>
+      <c r="BP9" s="80"/>
+      <c r="BQ9" s="80"/>
+      <c r="BR9" s="80"/>
+      <c r="BS9" s="80"/>
+      <c r="BT9" s="80"/>
+      <c r="BU9" s="80"/>
+      <c r="BV9" s="80"/>
+      <c r="BW9" s="80"/>
+      <c r="BX9" s="80"/>
+      <c r="BY9" s="80"/>
+      <c r="BZ9" s="80"/>
+      <c r="CA9" s="80"/>
+      <c r="CB9" s="80"/>
+      <c r="CC9" s="80"/>
+      <c r="CD9" s="80"/>
+      <c r="CE9" s="80"/>
+      <c r="CF9" s="80"/>
+      <c r="CG9" s="80"/>
+      <c r="CH9" s="80"/>
+      <c r="CI9" s="80"/>
+      <c r="CJ9" s="80"/>
+      <c r="CK9" s="80"/>
+      <c r="CL9" s="80"/>
+      <c r="CM9" s="80"/>
+      <c r="CN9" s="80"/>
+      <c r="CO9" s="80"/>
+      <c r="CP9" s="80"/>
+      <c r="CQ9" s="81"/>
+      <c r="CR9" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="CS9" s="75"/>
-      <c r="CT9" s="75"/>
-      <c r="CU9" s="75"/>
-      <c r="CV9" s="75"/>
-      <c r="CW9" s="75"/>
-      <c r="CX9" s="75"/>
-      <c r="CY9" s="75"/>
-      <c r="CZ9" s="75"/>
-      <c r="DA9" s="75"/>
-      <c r="DB9" s="75"/>
-      <c r="DC9" s="75"/>
-      <c r="DD9" s="75"/>
-      <c r="DE9" s="75"/>
-      <c r="DF9" s="75"/>
-      <c r="DG9" s="75"/>
-      <c r="DH9" s="75"/>
-      <c r="DI9" s="75"/>
-      <c r="DJ9" s="75"/>
-      <c r="DK9" s="75"/>
-      <c r="DL9" s="75"/>
-      <c r="DM9" s="75"/>
-      <c r="DN9" s="75"/>
-      <c r="DO9" s="75"/>
-      <c r="DP9" s="75"/>
-      <c r="DQ9" s="75"/>
-      <c r="DR9" s="75"/>
-      <c r="DS9" s="75"/>
-      <c r="DT9" s="75"/>
-      <c r="DU9" s="75"/>
-      <c r="DV9" s="75"/>
-      <c r="DW9" s="75"/>
-      <c r="DX9" s="75"/>
-      <c r="DY9" s="75"/>
-      <c r="DZ9" s="75"/>
-      <c r="EA9" s="75"/>
-      <c r="EB9" s="75"/>
-      <c r="EC9" s="75"/>
-      <c r="ED9" s="75"/>
-      <c r="EE9" s="75"/>
-      <c r="EF9" s="75"/>
-      <c r="EG9" s="75"/>
-      <c r="EH9" s="75"/>
-      <c r="EI9" s="76"/>
-      <c r="EJ9" s="74" t="s">
+      <c r="CS9" s="80"/>
+      <c r="CT9" s="80"/>
+      <c r="CU9" s="80"/>
+      <c r="CV9" s="80"/>
+      <c r="CW9" s="80"/>
+      <c r="CX9" s="80"/>
+      <c r="CY9" s="80"/>
+      <c r="CZ9" s="80"/>
+      <c r="DA9" s="80"/>
+      <c r="DB9" s="80"/>
+      <c r="DC9" s="80"/>
+      <c r="DD9" s="80"/>
+      <c r="DE9" s="80"/>
+      <c r="DF9" s="80"/>
+      <c r="DG9" s="80"/>
+      <c r="DH9" s="80"/>
+      <c r="DI9" s="80"/>
+      <c r="DJ9" s="80"/>
+      <c r="DK9" s="80"/>
+      <c r="DL9" s="80"/>
+      <c r="DM9" s="80"/>
+      <c r="DN9" s="80"/>
+      <c r="DO9" s="80"/>
+      <c r="DP9" s="80"/>
+      <c r="DQ9" s="80"/>
+      <c r="DR9" s="80"/>
+      <c r="DS9" s="80"/>
+      <c r="DT9" s="80"/>
+      <c r="DU9" s="80"/>
+      <c r="DV9" s="80"/>
+      <c r="DW9" s="80"/>
+      <c r="DX9" s="80"/>
+      <c r="DY9" s="80"/>
+      <c r="DZ9" s="80"/>
+      <c r="EA9" s="80"/>
+      <c r="EB9" s="80"/>
+      <c r="EC9" s="80"/>
+      <c r="ED9" s="80"/>
+      <c r="EE9" s="80"/>
+      <c r="EF9" s="80"/>
+      <c r="EG9" s="80"/>
+      <c r="EH9" s="80"/>
+      <c r="EI9" s="81"/>
+      <c r="EJ9" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="EK9" s="75"/>
-      <c r="EL9" s="75"/>
-      <c r="EM9" s="75"/>
-      <c r="EN9" s="75"/>
-      <c r="EO9" s="75"/>
-      <c r="EP9" s="75"/>
-      <c r="EQ9" s="75"/>
-      <c r="ER9" s="75"/>
-      <c r="ES9" s="75"/>
-      <c r="ET9" s="75"/>
-      <c r="EU9" s="75"/>
-      <c r="EV9" s="75"/>
-      <c r="EW9" s="75"/>
-      <c r="EX9" s="75"/>
-      <c r="EY9" s="75"/>
-      <c r="EZ9" s="75"/>
-      <c r="FA9" s="75"/>
-      <c r="FB9" s="75"/>
-      <c r="FC9" s="75"/>
-      <c r="FD9" s="75"/>
-      <c r="FE9" s="75"/>
-      <c r="FF9" s="75"/>
-      <c r="FG9" s="75"/>
-      <c r="FH9" s="75"/>
-      <c r="FI9" s="75"/>
-      <c r="FJ9" s="75"/>
-      <c r="FK9" s="75"/>
-      <c r="FL9" s="75"/>
-      <c r="FM9" s="75"/>
-      <c r="FN9" s="75"/>
-      <c r="FO9" s="75"/>
-      <c r="FP9" s="75"/>
-      <c r="FQ9" s="75"/>
-      <c r="FR9" s="75"/>
-      <c r="FS9" s="75"/>
-      <c r="FT9" s="75"/>
-      <c r="FU9" s="75"/>
-      <c r="FV9" s="75"/>
-      <c r="FW9" s="75"/>
-      <c r="FX9" s="75"/>
-      <c r="FY9" s="75"/>
-      <c r="FZ9" s="75"/>
-      <c r="GA9" s="76"/>
+      <c r="EK9" s="80"/>
+      <c r="EL9" s="80"/>
+      <c r="EM9" s="80"/>
+      <c r="EN9" s="80"/>
+      <c r="EO9" s="80"/>
+      <c r="EP9" s="80"/>
+      <c r="EQ9" s="80"/>
+      <c r="ER9" s="80"/>
+      <c r="ES9" s="80"/>
+      <c r="ET9" s="80"/>
+      <c r="EU9" s="80"/>
+      <c r="EV9" s="80"/>
+      <c r="EW9" s="80"/>
+      <c r="EX9" s="80"/>
+      <c r="EY9" s="80"/>
+      <c r="EZ9" s="80"/>
+      <c r="FA9" s="80"/>
+      <c r="FB9" s="80"/>
+      <c r="FC9" s="80"/>
+      <c r="FD9" s="80"/>
+      <c r="FE9" s="80"/>
+      <c r="FF9" s="80"/>
+      <c r="FG9" s="80"/>
+      <c r="FH9" s="80"/>
+      <c r="FI9" s="80"/>
+      <c r="FJ9" s="80"/>
+      <c r="FK9" s="80"/>
+      <c r="FL9" s="80"/>
+      <c r="FM9" s="80"/>
+      <c r="FN9" s="80"/>
+      <c r="FO9" s="80"/>
+      <c r="FP9" s="80"/>
+      <c r="FQ9" s="80"/>
+      <c r="FR9" s="80"/>
+      <c r="FS9" s="80"/>
+      <c r="FT9" s="80"/>
+      <c r="FU9" s="80"/>
+      <c r="FV9" s="80"/>
+      <c r="FW9" s="80"/>
+      <c r="FX9" s="80"/>
+      <c r="FY9" s="80"/>
+      <c r="FZ9" s="80"/>
+      <c r="GA9" s="81"/>
     </row>
     <row r="10" spans="1:183" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66" t="s">
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="64" t="s">
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64" t="s">
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="64" t="s">
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="103"/>
+      <c r="AL10" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-      <c r="AP10" s="71" t="s">
+      <c r="AM10" s="103"/>
+      <c r="AN10" s="103"/>
+      <c r="AO10" s="103"/>
+      <c r="AP10" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="72"/>
-      <c r="AS10" s="72"/>
-      <c r="AT10" s="72"/>
-      <c r="AU10" s="72"/>
-      <c r="AV10" s="72"/>
-      <c r="AW10" s="72"/>
-      <c r="AX10" s="72"/>
-      <c r="AY10" s="73"/>
+      <c r="AQ10" s="71"/>
+      <c r="AR10" s="71"/>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="71"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="71"/>
+      <c r="AY10" s="72"/>
       <c r="AZ10" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="BA10" s="66" t="s">
+      <c r="BA10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="BB10" s="66"/>
-      <c r="BC10" s="66"/>
-      <c r="BD10" s="66"/>
-      <c r="BE10" s="66"/>
-      <c r="BF10" s="66"/>
-      <c r="BG10" s="66"/>
-      <c r="BH10" s="66"/>
-      <c r="BI10" s="66"/>
-      <c r="BJ10" s="66"/>
-      <c r="BK10" s="66"/>
-      <c r="BL10" s="66" t="s">
+      <c r="BB10" s="102"/>
+      <c r="BC10" s="102"/>
+      <c r="BD10" s="102"/>
+      <c r="BE10" s="102"/>
+      <c r="BF10" s="102"/>
+      <c r="BG10" s="102"/>
+      <c r="BH10" s="102"/>
+      <c r="BI10" s="102"/>
+      <c r="BJ10" s="102"/>
+      <c r="BK10" s="102"/>
+      <c r="BL10" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="BM10" s="66"/>
-      <c r="BN10" s="66"/>
-      <c r="BO10" s="66"/>
-      <c r="BP10" s="66"/>
-      <c r="BQ10" s="66"/>
-      <c r="BR10" s="66"/>
-      <c r="BS10" s="66"/>
-      <c r="BT10" s="66"/>
-      <c r="BU10" s="66"/>
-      <c r="BV10" s="66"/>
-      <c r="BW10" s="64" t="s">
+      <c r="BM10" s="102"/>
+      <c r="BN10" s="102"/>
+      <c r="BO10" s="102"/>
+      <c r="BP10" s="102"/>
+      <c r="BQ10" s="102"/>
+      <c r="BR10" s="102"/>
+      <c r="BS10" s="102"/>
+      <c r="BT10" s="102"/>
+      <c r="BU10" s="102"/>
+      <c r="BV10" s="102"/>
+      <c r="BW10" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="BX10" s="64"/>
-      <c r="BY10" s="64"/>
-      <c r="BZ10" s="64" t="s">
+      <c r="BX10" s="103"/>
+      <c r="BY10" s="103"/>
+      <c r="BZ10" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="CA10" s="64"/>
-      <c r="CB10" s="64"/>
-      <c r="CC10" s="64"/>
-      <c r="CD10" s="64" t="s">
+      <c r="CA10" s="103"/>
+      <c r="CB10" s="103"/>
+      <c r="CC10" s="103"/>
+      <c r="CD10" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="CE10" s="64"/>
-      <c r="CF10" s="64"/>
-      <c r="CG10" s="64"/>
-      <c r="CH10" s="71" t="s">
+      <c r="CE10" s="103"/>
+      <c r="CF10" s="103"/>
+      <c r="CG10" s="103"/>
+      <c r="CH10" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="CI10" s="72"/>
-      <c r="CJ10" s="72"/>
-      <c r="CK10" s="72"/>
-      <c r="CL10" s="72"/>
-      <c r="CM10" s="72"/>
-      <c r="CN10" s="72"/>
-      <c r="CO10" s="72"/>
-      <c r="CP10" s="72"/>
-      <c r="CQ10" s="73"/>
+      <c r="CI10" s="71"/>
+      <c r="CJ10" s="71"/>
+      <c r="CK10" s="71"/>
+      <c r="CL10" s="71"/>
+      <c r="CM10" s="71"/>
+      <c r="CN10" s="71"/>
+      <c r="CO10" s="71"/>
+      <c r="CP10" s="71"/>
+      <c r="CQ10" s="72"/>
       <c r="CR10" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="CS10" s="66" t="s">
+      <c r="CS10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="CT10" s="66"/>
-      <c r="CU10" s="66"/>
-      <c r="CV10" s="66"/>
-      <c r="CW10" s="66"/>
-      <c r="CX10" s="66"/>
-      <c r="CY10" s="66"/>
-      <c r="CZ10" s="66"/>
-      <c r="DA10" s="66"/>
-      <c r="DB10" s="66"/>
-      <c r="DC10" s="66"/>
-      <c r="DD10" s="66" t="s">
+      <c r="CT10" s="102"/>
+      <c r="CU10" s="102"/>
+      <c r="CV10" s="102"/>
+      <c r="CW10" s="102"/>
+      <c r="CX10" s="102"/>
+      <c r="CY10" s="102"/>
+      <c r="CZ10" s="102"/>
+      <c r="DA10" s="102"/>
+      <c r="DB10" s="102"/>
+      <c r="DC10" s="102"/>
+      <c r="DD10" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="DE10" s="66"/>
-      <c r="DF10" s="66"/>
-      <c r="DG10" s="66"/>
-      <c r="DH10" s="66"/>
-      <c r="DI10" s="66"/>
-      <c r="DJ10" s="66"/>
-      <c r="DK10" s="66"/>
-      <c r="DL10" s="66"/>
-      <c r="DM10" s="66"/>
-      <c r="DN10" s="66"/>
-      <c r="DO10" s="64" t="s">
+      <c r="DE10" s="102"/>
+      <c r="DF10" s="102"/>
+      <c r="DG10" s="102"/>
+      <c r="DH10" s="102"/>
+      <c r="DI10" s="102"/>
+      <c r="DJ10" s="102"/>
+      <c r="DK10" s="102"/>
+      <c r="DL10" s="102"/>
+      <c r="DM10" s="102"/>
+      <c r="DN10" s="102"/>
+      <c r="DO10" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="DP10" s="64"/>
-      <c r="DQ10" s="64"/>
-      <c r="DR10" s="64" t="s">
+      <c r="DP10" s="103"/>
+      <c r="DQ10" s="103"/>
+      <c r="DR10" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="DS10" s="64"/>
-      <c r="DT10" s="64"/>
-      <c r="DU10" s="64"/>
-      <c r="DV10" s="64" t="s">
+      <c r="DS10" s="103"/>
+      <c r="DT10" s="103"/>
+      <c r="DU10" s="103"/>
+      <c r="DV10" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="DW10" s="64"/>
-      <c r="DX10" s="64"/>
-      <c r="DY10" s="64"/>
-      <c r="DZ10" s="71" t="s">
+      <c r="DW10" s="103"/>
+      <c r="DX10" s="103"/>
+      <c r="DY10" s="103"/>
+      <c r="DZ10" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="EA10" s="72"/>
-      <c r="EB10" s="72"/>
-      <c r="EC10" s="72"/>
-      <c r="ED10" s="72"/>
-      <c r="EE10" s="72"/>
-      <c r="EF10" s="72"/>
-      <c r="EG10" s="72"/>
-      <c r="EH10" s="72"/>
-      <c r="EI10" s="73"/>
+      <c r="EA10" s="71"/>
+      <c r="EB10" s="71"/>
+      <c r="EC10" s="71"/>
+      <c r="ED10" s="71"/>
+      <c r="EE10" s="71"/>
+      <c r="EF10" s="71"/>
+      <c r="EG10" s="71"/>
+      <c r="EH10" s="71"/>
+      <c r="EI10" s="72"/>
       <c r="EJ10" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="EK10" s="71" t="s">
+      <c r="EK10" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="EL10" s="72"/>
-      <c r="EM10" s="72"/>
-      <c r="EN10" s="72"/>
-      <c r="EO10" s="72"/>
-      <c r="EP10" s="72"/>
-      <c r="EQ10" s="72"/>
-      <c r="ER10" s="72"/>
-      <c r="ES10" s="72"/>
-      <c r="ET10" s="72"/>
-      <c r="EU10" s="73"/>
-      <c r="EV10" s="66" t="s">
+      <c r="EL10" s="71"/>
+      <c r="EM10" s="71"/>
+      <c r="EN10" s="71"/>
+      <c r="EO10" s="71"/>
+      <c r="EP10" s="71"/>
+      <c r="EQ10" s="71"/>
+      <c r="ER10" s="71"/>
+      <c r="ES10" s="71"/>
+      <c r="ET10" s="71"/>
+      <c r="EU10" s="72"/>
+      <c r="EV10" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="EW10" s="66"/>
-      <c r="EX10" s="66"/>
-      <c r="EY10" s="66"/>
-      <c r="EZ10" s="66"/>
-      <c r="FA10" s="66"/>
-      <c r="FB10" s="66"/>
-      <c r="FC10" s="66"/>
-      <c r="FD10" s="66"/>
-      <c r="FE10" s="66"/>
-      <c r="FF10" s="66"/>
-      <c r="FG10" s="64" t="s">
+      <c r="EW10" s="102"/>
+      <c r="EX10" s="102"/>
+      <c r="EY10" s="102"/>
+      <c r="EZ10" s="102"/>
+      <c r="FA10" s="102"/>
+      <c r="FB10" s="102"/>
+      <c r="FC10" s="102"/>
+      <c r="FD10" s="102"/>
+      <c r="FE10" s="102"/>
+      <c r="FF10" s="102"/>
+      <c r="FG10" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="FH10" s="64"/>
-      <c r="FI10" s="64"/>
-      <c r="FJ10" s="64" t="s">
+      <c r="FH10" s="103"/>
+      <c r="FI10" s="103"/>
+      <c r="FJ10" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="FK10" s="64"/>
-      <c r="FL10" s="64"/>
-      <c r="FM10" s="64"/>
-      <c r="FN10" s="64" t="s">
+      <c r="FK10" s="103"/>
+      <c r="FL10" s="103"/>
+      <c r="FM10" s="103"/>
+      <c r="FN10" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="FO10" s="64"/>
-      <c r="FP10" s="64"/>
-      <c r="FQ10" s="65"/>
-      <c r="FR10" s="71" t="s">
+      <c r="FO10" s="103"/>
+      <c r="FP10" s="103"/>
+      <c r="FQ10" s="108"/>
+      <c r="FR10" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="FS10" s="72"/>
-      <c r="FT10" s="72"/>
-      <c r="FU10" s="72"/>
-      <c r="FV10" s="72"/>
-      <c r="FW10" s="72"/>
-      <c r="FX10" s="72"/>
-      <c r="FY10" s="72"/>
-      <c r="FZ10" s="72"/>
-      <c r="GA10" s="73"/>
+      <c r="FS10" s="71"/>
+      <c r="FT10" s="71"/>
+      <c r="FU10" s="71"/>
+      <c r="FV10" s="71"/>
+      <c r="FW10" s="71"/>
+      <c r="FX10" s="71"/>
+      <c r="FY10" s="71"/>
+      <c r="FZ10" s="71"/>
+      <c r="GA10" s="72"/>
     </row>
     <row r="11" spans="1:183" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
@@ -15835,20 +15835,21 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="BE1:BH2"/>
-    <mergeCell ref="AP10:AY10"/>
-    <mergeCell ref="X1:AM1"/>
-    <mergeCell ref="X2:AM2"/>
-    <mergeCell ref="H8:AY8"/>
-    <mergeCell ref="H9:AY9"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AR1:BA1"/>
-    <mergeCell ref="BB1:BD2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="AR2:BA2"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="I10:S10"/>
+    <mergeCell ref="T10:AD10"/>
+    <mergeCell ref="FN10:FQ10"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="BW10:BY10"/>
+    <mergeCell ref="BZ10:CC10"/>
+    <mergeCell ref="CD10:CG10"/>
+    <mergeCell ref="DO10:DQ10"/>
+    <mergeCell ref="DR10:DU10"/>
+    <mergeCell ref="EV10:FF10"/>
+    <mergeCell ref="BA10:BK10"/>
+    <mergeCell ref="BL10:BV10"/>
     <mergeCell ref="FR10:GA10"/>
     <mergeCell ref="EJ8:GA8"/>
     <mergeCell ref="EJ9:GA9"/>
@@ -15865,23 +15866,22 @@
     <mergeCell ref="DV10:DY10"/>
     <mergeCell ref="FG10:FI10"/>
     <mergeCell ref="FJ10:FM10"/>
+    <mergeCell ref="BE1:BH2"/>
+    <mergeCell ref="AP10:AY10"/>
+    <mergeCell ref="X1:AM1"/>
+    <mergeCell ref="X2:AM2"/>
+    <mergeCell ref="H8:AY8"/>
+    <mergeCell ref="H9:AY9"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AR1:BA1"/>
+    <mergeCell ref="BB1:BD2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:BA2"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="C3:W4"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="I10:S10"/>
-    <mergeCell ref="T10:AD10"/>
-    <mergeCell ref="FN10:FQ10"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="BW10:BY10"/>
-    <mergeCell ref="BZ10:CC10"/>
-    <mergeCell ref="CD10:CG10"/>
-    <mergeCell ref="DO10:DQ10"/>
-    <mergeCell ref="DR10:DU10"/>
-    <mergeCell ref="EV10:FF10"/>
-    <mergeCell ref="BA10:BK10"/>
-    <mergeCell ref="BL10:BV10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
